--- a/results/stability/Stability Results.xlsx
+++ b/results/stability/Stability Results.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>SOS2</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>std oil</t>
+  </si>
+  <si>
+    <t>ratio</t>
   </si>
 </sst>
 </file>
@@ -2864,16 +2867,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2894,16 +2897,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>185736</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>157161</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3192,10 +3195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,12 +3211,12 @@
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>3.2341562001378299</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>3.3961356866535701</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>3.2076478783936402</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>3.8097168275727298</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>3.7986341250206301</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>4.5197247251531101</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>4.50996650899675</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>4.7828447705233099</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>3.5992915531329701</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -3366,8 +3369,12 @@
       <c r="I13">
         <v>1.8630134016257101</v>
       </c>
+      <c r="J13">
+        <f>I13/H13</f>
+        <v>1.3792794400684559E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -3377,6 +3384,9 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
       <c r="F14">
         <v>1</v>
       </c>
@@ -3389,8 +3399,12 @@
       <c r="I14">
         <v>1.63334043603965</v>
       </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J30" si="0">I14/H14</f>
+        <v>1.2214296395532261E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>5</v>
       </c>
@@ -3400,6 +3414,10 @@
       <c r="D15">
         <v>3.08298622609089</v>
       </c>
+      <c r="E15">
+        <f>D15/C15</f>
+        <v>2.5689116468173255E-2</v>
+      </c>
       <c r="F15">
         <v>2</v>
       </c>
@@ -3412,8 +3430,12 @@
       <c r="I15">
         <v>1.55870682288097</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1.1701385127384866E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>10</v>
       </c>
@@ -3423,6 +3445,10 @@
       <c r="D16">
         <v>1.9935186345495099</v>
       </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E30" si="1">D16/C16</f>
+        <v>1.6889744115192985E-2</v>
+      </c>
       <c r="F16">
         <v>3</v>
       </c>
@@ -3435,8 +3461,12 @@
       <c r="I16">
         <v>1.5031665169678901</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1.1339490393113345E-2</v>
+      </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>15</v>
       </c>
@@ -3446,6 +3476,10 @@
       <c r="D17">
         <v>1.9507612673574399</v>
       </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.6673209163076966E-2</v>
+      </c>
       <c r="F17">
         <v>4</v>
       </c>
@@ -3458,8 +3492,12 @@
       <c r="I17">
         <v>1.57958995199759</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1.1950420640107642E-2</v>
+      </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>20</v>
       </c>
@@ -3469,6 +3507,10 @@
       <c r="D18">
         <v>1.99094437745335</v>
       </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.7095320065742322E-2</v>
+      </c>
       <c r="F18">
         <v>5</v>
       </c>
@@ -3481,8 +3523,12 @@
       <c r="I18">
         <v>1.5022261124093199</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1.1388228165091011E-2</v>
+      </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>25</v>
       </c>
@@ -3492,6 +3538,10 @@
       <c r="D19">
         <v>1.9676802337696699</v>
       </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.6955371008679158E-2</v>
+      </c>
       <c r="F19">
         <v>6</v>
       </c>
@@ -3504,8 +3554,12 @@
       <c r="I19">
         <v>1.4019413445681901</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1.0651469433779731E-2</v>
+      </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>30</v>
       </c>
@@ -3515,6 +3569,10 @@
       <c r="D20">
         <v>1.88157197312867</v>
       </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.6271361328504676E-2</v>
+      </c>
       <c r="F20">
         <v>7</v>
       </c>
@@ -3527,8 +3585,12 @@
       <c r="I20">
         <v>1.39604749067392</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>1.0619725793972756E-2</v>
+      </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>40</v>
       </c>
@@ -3538,6 +3600,10 @@
       <c r="D21">
         <v>1.8120849921445801</v>
       </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.5786663569197074E-2</v>
+      </c>
       <c r="F21">
         <v>8</v>
       </c>
@@ -3550,8 +3616,12 @@
       <c r="I21">
         <v>1.3277447570545899</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>1.0147815730638433E-2</v>
+      </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>50</v>
       </c>
@@ -3561,6 +3631,10 @@
       <c r="D22">
         <v>1.6425606444595</v>
       </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.437353381935377E-2</v>
+      </c>
       <c r="F22">
         <v>9</v>
       </c>
@@ -3573,8 +3647,12 @@
       <c r="I22">
         <v>1.3421017477238399</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1.0277606732004939E-2</v>
+      </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>75</v>
       </c>
@@ -3584,6 +3662,10 @@
       <c r="D23">
         <v>1.46106601607883</v>
       </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1.2872901797142988E-2</v>
+      </c>
       <c r="F23">
         <v>10</v>
       </c>
@@ -3596,8 +3678,12 @@
       <c r="I23">
         <v>1.43165219371001</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1.0991311234462831E-2</v>
+      </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>100</v>
       </c>
@@ -3607,6 +3693,10 @@
       <c r="D24">
         <v>1.3483050205381</v>
       </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1.1934997218518905E-2</v>
+      </c>
       <c r="F24">
         <v>11</v>
       </c>
@@ -3619,8 +3709,12 @@
       <c r="I24">
         <v>1.3552407015478001</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>1.0419735750442813E-2</v>
+      </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>125</v>
       </c>
@@ -3630,6 +3724,10 @@
       <c r="D25">
         <v>1.2555193103762801</v>
       </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1.1153797076132087E-2</v>
+      </c>
       <c r="F25">
         <v>12</v>
       </c>
@@ -3642,8 +3740,12 @@
       <c r="I25">
         <v>1.2345213178061001</v>
       </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>9.5309261272084455E-3</v>
+      </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>150</v>
       </c>
@@ -3653,6 +3755,10 @@
       <c r="D26">
         <v>1.2325175537636199</v>
       </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1.0987331052975209E-2</v>
+      </c>
       <c r="F26">
         <v>13</v>
       </c>
@@ -3665,8 +3771,12 @@
       <c r="I26">
         <v>1.0659680482490701</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>8.2683902072703454E-3</v>
+      </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>200</v>
       </c>
@@ -3676,6 +3786,10 @@
       <c r="D27">
         <v>1.10770791913427</v>
       </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>9.9040731605879711E-3</v>
+      </c>
       <c r="F27">
         <v>14</v>
       </c>
@@ -3688,8 +3802,12 @@
       <c r="I27">
         <v>0.77844811719745199</v>
       </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>6.0638635211472209E-3</v>
+      </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>300</v>
       </c>
@@ -3699,6 +3817,10 @@
       <c r="D28">
         <v>0.89900166763352496</v>
       </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>8.0815240214424811E-3</v>
+      </c>
       <c r="F28">
         <v>15</v>
       </c>
@@ -3711,8 +3833,12 @@
       <c r="I28">
         <v>0.73113542704436996</v>
       </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>5.7050805668322222E-3</v>
+      </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>400</v>
       </c>
@@ -3722,8 +3848,12 @@
       <c r="D29">
         <v>0.68556193551076705</v>
       </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>6.18306354019934E-3</v>
+      </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>500</v>
       </c>
@@ -3732,6 +3862,10 @@
       </c>
       <c r="D30">
         <v>0.49684097437528502</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>4.4896973260088943E-3</v>
       </c>
     </row>
   </sheetData>
